--- a/Data/EC/NIT-9017501305.xlsx
+++ b/Data/EC/NIT-9017501305.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64461FCF-D2B5-4175-8E22-695CA52B8F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F89B7B9E-AC94-4B6A-BDC4-E16958F95170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{883577EB-185E-4112-9DB3-174DAB6E5909}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D3086F4-3FF9-41C9-93B0-50368F7F984B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="71">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,145 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73145135</t>
+  </si>
+  <si>
+    <t>OSCAR MANUEL HERRERA SALAS</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1051447131</t>
+  </si>
+  <si>
+    <t>JUAN GUILLERMO OSPINO CAUSIL</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>73112236</t>
+  </si>
+  <si>
+    <t>BENJAMIN HERRERA ROCHA</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1007684975</t>
+  </si>
+  <si>
+    <t>MANUEL HURTADO BOLAÑO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1143349928</t>
   </si>
   <si>
     <t>ALEXANDER JOSE LIÑAN BRAVO</t>
   </si>
   <si>
-    <t>2311</t>
+    <t>1042998278</t>
+  </si>
+  <si>
+    <t>RAFAEL ANTONIO OLIVARES TORREGROSA</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>1045172022</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS BALLESTAS SILVERA</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>1127599548</t>
+  </si>
+  <si>
+    <t>NARLE MANUEL BALLESTAS SILVERA</t>
+  </si>
+  <si>
+    <t>1002190028</t>
+  </si>
+  <si>
+    <t>OSCAR ANDRES HERRERA PACHECO</t>
+  </si>
+  <si>
+    <t>3032180</t>
+  </si>
+  <si>
+    <t>ADONIAS RUBIANO VILLALOBOS</t>
+  </si>
+  <si>
+    <t>10820679</t>
+  </si>
+  <si>
+    <t>RODRIGO JOSE JIMENEZ OJEDA</t>
+  </si>
+  <si>
+    <t>1085172810</t>
+  </si>
+  <si>
+    <t>AGUSTIN ENRRIQUE SIERRA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1001973117</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO PEÑARANDA LAMBERTINEZ</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
   </si>
   <si>
     <t>1002244664</t>
@@ -80,97 +212,10 @@
     <t>ALEXIS JOSE HERNANDEZ MONCARIS</t>
   </si>
   <si>
-    <t>1051447131</t>
-  </si>
-  <si>
-    <t>JUAN GUILLERMO OSPINO CAUSIL</t>
-  </si>
-  <si>
-    <t>1001973117</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO PEÑARANDA LAMBERTINEZ</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1085172810</t>
-  </si>
-  <si>
-    <t>AGUSTIN ENRRIQUE SIERRA MARTINEZ</t>
-  </si>
-  <si>
     <t>1007206434</t>
   </si>
   <si>
     <t>MIGUEL ANDRES HERRERA GOMEZ</t>
-  </si>
-  <si>
-    <t>1042998278</t>
-  </si>
-  <si>
-    <t>RAFAEL ANTONIO OLIVARES TORREGROSA</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1002190028</t>
-  </si>
-  <si>
-    <t>OSCAR ANDRES HERRERA PACHECO</t>
-  </si>
-  <si>
-    <t>3032180</t>
-  </si>
-  <si>
-    <t>ADONIAS RUBIANO VILLALOBOS</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>73145135</t>
-  </si>
-  <si>
-    <t>OSCAR MANUEL HERRERA SALAS</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>73112236</t>
-  </si>
-  <si>
-    <t>BENJAMIN HERRERA ROCHA</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -584,7 +629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE41CD6-9E80-F88F-8DC5-A32BC594F727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DAF025-69E6-98DE-8769-185B8E1CB68C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,8 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE3F7CE-F389-4E3E-B449-6D3FCD3F2485}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924266BE-D78F-4904-9E98-F9010525DF93}">
+  <dimension ref="B2:J82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -960,7 +1005,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1005,7 +1050,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1037,12 +1082,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1115146</v>
+        <v>2940086</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1053,17 +1098,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1090,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1113,10 +1158,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>12373</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1133,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>12373</v>
@@ -1150,19 +1195,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>12373</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1173,19 +1218,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>13920</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1196,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1219,16 +1264,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>12373</v>
       </c>
       <c r="G21" s="18">
         <v>1160000</v>
@@ -1242,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1265,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1288,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1311,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1334,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1357,13 +1402,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1380,13 +1425,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1409,7 +1454,7 @@
         <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1426,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F30" s="18">
-        <v>35574</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1455,7 +1500,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1472,13 +1517,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1495,13 +1540,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1518,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
-        <v>27733</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
         <v>1300000</v>
@@ -1547,7 +1592,7 @@
         <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1564,13 +1609,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1587,13 +1632,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1610,13 +1655,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1633,19 +1678,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1656,75 +1701,880 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G52" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="E53" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="18">
+        <v>27733</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="D54" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G41" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
+      <c r="D55" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="18">
+        <v>35574</v>
+      </c>
+      <c r="G66" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
+      <c r="F72" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="F73" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="18">
+        <v>13920</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="18">
+        <v>12373</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G76" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="H81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="H82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H81:J81"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017501305.xlsx
+++ b/Data/EC/NIT-9017501305.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F89B7B9E-AC94-4B6A-BDC4-E16958F95170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDCB77B7-578E-4C56-A5AD-BBF2EF66964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D3086F4-3FF9-41C9-93B0-50368F7F984B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E20387A6-B18F-4D90-9C16-5A715041C3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,84 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1051447131</t>
+  </si>
+  <si>
+    <t>JUAN GUILLERMO OSPINO CAUSIL</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>1143349928</t>
+  </si>
+  <si>
+    <t>ALEXANDER JOSE LIÑAN BRAVO</t>
+  </si>
+  <si>
+    <t>1001973117</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO PEÑARANDA LAMBERTINEZ</t>
+  </si>
+  <si>
+    <t>1002244664</t>
+  </si>
+  <si>
+    <t>ALEXIS JOSE HERNANDEZ MONCARIS</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1042998278</t>
+  </si>
+  <si>
+    <t>RAFAEL ANTONIO OLIVARES TORREGROSA</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>1085172810</t>
+  </si>
+  <si>
+    <t>AGUSTIN ENRRIQUE SIERRA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1007206434</t>
+  </si>
+  <si>
+    <t>MIGUEL ANDRES HERRERA GOMEZ</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1002190028</t>
+  </si>
+  <si>
+    <t>OSCAR ANDRES HERRERA PACHECO</t>
+  </si>
+  <si>
     <t>73145135</t>
   </si>
   <si>
@@ -74,13 +152,13 @@
     <t>2409</t>
   </si>
   <si>
-    <t>1051447131</t>
-  </si>
-  <si>
-    <t>JUAN GUILLERMO OSPINO CAUSIL</t>
-  </si>
-  <si>
-    <t>2311</t>
+    <t>3032180</t>
+  </si>
+  <si>
+    <t>ADONIAS RUBIANO VILLALOBOS</t>
+  </si>
+  <si>
+    <t>2410</t>
   </si>
   <si>
     <t>73112236</t>
@@ -89,12 +167,12 @@
     <t>BENJAMIN HERRERA ROCHA</t>
   </si>
   <si>
+    <t>2411</t>
+  </si>
+  <si>
     <t>2412</t>
   </si>
   <si>
-    <t>2411</t>
-  </si>
-  <si>
     <t>1007684975</t>
   </si>
   <si>
@@ -104,118 +182,19 @@
     <t>2507</t>
   </si>
   <si>
-    <t>1143349928</t>
-  </si>
-  <si>
-    <t>ALEXANDER JOSE LIÑAN BRAVO</t>
-  </si>
-  <si>
-    <t>1042998278</t>
-  </si>
-  <si>
-    <t>RAFAEL ANTONIO OLIVARES TORREGROSA</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1045172022</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS BALLESTAS SILVERA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>1127599548</t>
-  </si>
-  <si>
-    <t>NARLE MANUEL BALLESTAS SILVERA</t>
-  </si>
-  <si>
-    <t>1002190028</t>
-  </si>
-  <si>
-    <t>OSCAR ANDRES HERRERA PACHECO</t>
-  </si>
-  <si>
-    <t>3032180</t>
-  </si>
-  <si>
-    <t>ADONIAS RUBIANO VILLALOBOS</t>
-  </si>
-  <si>
-    <t>10820679</t>
-  </si>
-  <si>
-    <t>RODRIGO JOSE JIMENEZ OJEDA</t>
-  </si>
-  <si>
-    <t>1085172810</t>
-  </si>
-  <si>
-    <t>AGUSTIN ENRRIQUE SIERRA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1001973117</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO PEÑARANDA LAMBERTINEZ</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1002244664</t>
-  </si>
-  <si>
-    <t>ALEXIS JOSE HERNANDEZ MONCARIS</t>
-  </si>
-  <si>
-    <t>1007206434</t>
-  </si>
-  <si>
-    <t>MIGUEL ANDRES HERRERA GOMEZ</t>
+    <t>8851721</t>
+  </si>
+  <si>
+    <t>RICARDO CARABALLO BLANQUICETH</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1047382074</t>
+  </si>
+  <si>
+    <t>ANGEL CUSTODIO CASSERES HERRERA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -314,7 +293,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -327,9 +308,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -529,23 +508,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,10 +552,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DAF025-69E6-98DE-8769-185B8E1CB68C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177DFD71-5A2E-313F-5E89-59706A63367E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,8 +959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924266BE-D78F-4904-9E98-F9010525DF93}">
-  <dimension ref="B2:J82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D153E51D-0886-453D-A52C-AF410BDA9DB2}">
+  <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1005,7 +984,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1050,7 +1029,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1082,12 +1061,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2940086</v>
+        <v>1272680</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,17 +1077,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1135,13 +1114,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1158,10 +1137,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>12373</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1178,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>12373</v>
@@ -1195,19 +1174,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>13920</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1218,19 +1197,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>12373</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1241,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1264,16 +1243,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>12373</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
         <v>1160000</v>
@@ -1287,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1310,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1333,19 +1312,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1356,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1379,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1402,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1425,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1454,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1471,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1494,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1517,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>35574</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1540,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1563,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>27733</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1586,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1609,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1632,19 +1611,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1655,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1678,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1701,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1724,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1747,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F42" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1770,811 +1749,75 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>51246</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="B44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="24">
+        <v>49348</v>
+      </c>
+      <c r="G44" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="B49" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="18">
-        <v>27733</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="18">
-        <v>35574</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F70" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F72" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F73" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="18">
-        <v>13920</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="18">
-        <v>12373</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G76" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="32"/>
-      <c r="H81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="32"/>
-      <c r="H82" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="B50" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="H50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
